--- a/user-data/population-urban/population-urban.xlsx
+++ b/user-data/population-urban/population-urban.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>id</t>
   </si>
@@ -1309,9 +1309,6 @@
   </si>
   <si>
     <t>Source: NA</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1693,22 +1690,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11">
@@ -1724,11 +1721,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/population-urban/population-urban.xlsx
+++ b/user-data/population-urban/population-urban.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -1320,7 +1320,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1723,6 +1726,11 @@
         <v>437</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/population-urban/population-urban.xlsx
+++ b/user-data/population-urban/population-urban.xlsx
@@ -66,7 +66,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -174,7 +174,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -213,88 +213,88 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -312,7 +312,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -990,7 +990,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1008,7 +1008,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1182,7 +1182,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1206,7 +1206,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1227,18 +1227,18 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1329,7 +1329,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -5242,7 +5242,7 @@
         <v>2005</v>
       </c>
       <c r="D250" t="n">
-        <v>  8146651</v>
+        <v>  2560961</v>
       </c>
     </row>
     <row r="251">
@@ -5256,7 +5256,7 @@
         <v>2006</v>
       </c>
       <c r="D251" t="n">
-        <v>  8403813</v>
+        <v>  2616397</v>
       </c>
     </row>
     <row r="252">
@@ -5270,7 +5270,7 @@
         <v>2007</v>
       </c>
       <c r="D252" t="n">
-        <v>  8673776</v>
+        <v>  2671098</v>
       </c>
     </row>
     <row r="253">
@@ -5284,7 +5284,7 @@
         <v>2008</v>
       </c>
       <c r="D253" t="n">
-        <v>  8959948</v>
+        <v>  2726487</v>
       </c>
     </row>
     <row r="254">
@@ -5298,7 +5298,7 @@
         <v>2009</v>
       </c>
       <c r="D254" t="n">
-        <v>  9265849</v>
+        <v>  2784432</v>
       </c>
     </row>
     <row r="255">
@@ -5312,7 +5312,7 @@
         <v>2010</v>
       </c>
       <c r="D255" t="n">
-        <v>  9593994</v>
+        <v>  2846267</v>
       </c>
     </row>
     <row r="256">
@@ -5326,7 +5326,7 @@
         <v>2011</v>
       </c>
       <c r="D256" t="n">
-        <v>  9943130</v>
+        <v>  2921611</v>
       </c>
     </row>
     <row r="257">
@@ -5340,7 +5340,7 @@
         <v>2012</v>
       </c>
       <c r="D257" t="n">
-        <v> 10317186</v>
+        <v>  3001469</v>
       </c>
     </row>
     <row r="258">
@@ -5354,7 +5354,7 @@
         <v>2005</v>
       </c>
       <c r="D258" t="n">
-        <v>  2560961</v>
+        <v>  8804237</v>
       </c>
     </row>
     <row r="259">
@@ -5368,7 +5368,7 @@
         <v>2006</v>
       </c>
       <c r="D259" t="n">
-        <v>  2616397</v>
+        <v>  9145012</v>
       </c>
     </row>
     <row r="260">
@@ -5382,7 +5382,7 @@
         <v>2007</v>
       </c>
       <c r="D260" t="n">
-        <v>  2671098</v>
+        <v>  9497160</v>
       </c>
     </row>
     <row r="261">
@@ -5396,7 +5396,7 @@
         <v>2008</v>
       </c>
       <c r="D261" t="n">
-        <v>  2726487</v>
+        <v>  9860923</v>
       </c>
     </row>
     <row r="262">
@@ -5410,7 +5410,7 @@
         <v>2009</v>
       </c>
       <c r="D262" t="n">
-        <v>  2784432</v>
+        <v> 10236487</v>
       </c>
     </row>
     <row r="263">
@@ -5424,7 +5424,7 @@
         <v>2010</v>
       </c>
       <c r="D263" t="n">
-        <v>  2846267</v>
+        <v> 10624012</v>
       </c>
     </row>
     <row r="264">
@@ -5438,7 +5438,7 @@
         <v>2011</v>
       </c>
       <c r="D264" t="n">
-        <v>  2921611</v>
+        <v> 11019244</v>
       </c>
     </row>
     <row r="265">
@@ -5452,7 +5452,7 @@
         <v>2012</v>
       </c>
       <c r="D265" t="n">
-        <v>  3001469</v>
+        <v> 11426592</v>
       </c>
     </row>
     <row r="266">
@@ -5466,7 +5466,7 @@
         <v>2005</v>
       </c>
       <c r="D266" t="n">
-        <v>  8804237</v>
+        <v> 25889021</v>
       </c>
     </row>
     <row r="267">
@@ -5480,7 +5480,7 @@
         <v>2006</v>
       </c>
       <c r="D267" t="n">
-        <v>  9145012</v>
+        <v> 26124281</v>
       </c>
     </row>
     <row r="268">
@@ -5494,7 +5494,7 @@
         <v>2007</v>
       </c>
       <c r="D268" t="n">
-        <v>  9497160</v>
+        <v> 26407296</v>
       </c>
     </row>
     <row r="269">
@@ -5508,7 +5508,7 @@
         <v>2008</v>
       </c>
       <c r="D269" t="n">
-        <v>  9860923</v>
+        <v> 26723351</v>
       </c>
     </row>
     <row r="270">
@@ -5522,7 +5522,7 @@
         <v>2009</v>
       </c>
       <c r="D270" t="n">
-        <v> 10236487</v>
+        <v> 27060104</v>
       </c>
     </row>
     <row r="271">
@@ -5536,7 +5536,7 @@
         <v>2010</v>
       </c>
       <c r="D271" t="n">
-        <v> 10624012</v>
+        <v> 27392608</v>
       </c>
     </row>
     <row r="272">
@@ -5550,7 +5550,7 @@
         <v>2011</v>
       </c>
       <c r="D272" t="n">
-        <v> 11019244</v>
+        <v> 27701505</v>
       </c>
     </row>
     <row r="273">
@@ -5564,7 +5564,7 @@
         <v>2012</v>
       </c>
       <c r="D273" t="n">
-        <v> 11426592</v>
+        <v> 28070919</v>
       </c>
     </row>
     <row r="274">
@@ -5578,7 +5578,7 @@
         <v>2005</v>
       </c>
       <c r="D274" t="n">
-        <v> 25889021</v>
+        <v>   276129</v>
       </c>
     </row>
     <row r="275">
@@ -5592,7 +5592,7 @@
         <v>2006</v>
       </c>
       <c r="D275" t="n">
-        <v> 26124281</v>
+        <v>   282021</v>
       </c>
     </row>
     <row r="276">
@@ -5606,7 +5606,7 @@
         <v>2007</v>
       </c>
       <c r="D276" t="n">
-        <v> 26407296</v>
+        <v>   287067</v>
       </c>
     </row>
     <row r="277">
@@ -5620,7 +5620,7 @@
         <v>2008</v>
       </c>
       <c r="D277" t="n">
-        <v> 26723351</v>
+        <v>   291641</v>
       </c>
     </row>
     <row r="278">
@@ -5634,7 +5634,7 @@
         <v>2009</v>
       </c>
       <c r="D278" t="n">
-        <v> 27060104</v>
+        <v>   296306</v>
       </c>
     </row>
     <row r="279">
@@ -5648,7 +5648,7 @@
         <v>2010</v>
       </c>
       <c r="D279" t="n">
-        <v> 27392608</v>
+        <v>   301498</v>
       </c>
     </row>
     <row r="280">
@@ -5662,7 +5662,7 @@
         <v>2011</v>
       </c>
       <c r="D280" t="n">
-        <v> 27701505</v>
+        <v>   306983</v>
       </c>
     </row>
     <row r="281">
@@ -5676,7 +5676,7 @@
         <v>2012</v>
       </c>
       <c r="D281" t="n">
-        <v> 28070919</v>
+        <v>   313075</v>
       </c>
     </row>
     <row r="282">
@@ -5690,7 +5690,7 @@
         <v>2005</v>
       </c>
       <c r="D282" t="n">
-        <v>   276129</v>
+        <v>  1507795</v>
       </c>
     </row>
     <row r="283">
@@ -5704,7 +5704,7 @@
         <v>2006</v>
       </c>
       <c r="D283" t="n">
-        <v>   282021</v>
+        <v>  1541206</v>
       </c>
     </row>
     <row r="284">
@@ -5718,7 +5718,7 @@
         <v>2007</v>
       </c>
       <c r="D284" t="n">
-        <v>   287067</v>
+        <v>  1576219</v>
       </c>
     </row>
     <row r="285">
@@ -5732,7 +5732,7 @@
         <v>2008</v>
       </c>
       <c r="D285" t="n">
-        <v>   291641</v>
+        <v>  1612781</v>
       </c>
     </row>
     <row r="286">
@@ -5746,7 +5746,7 @@
         <v>2009</v>
       </c>
       <c r="D286" t="n">
-        <v>   296306</v>
+        <v>  1650722</v>
       </c>
     </row>
     <row r="287">
@@ -5760,7 +5760,7 @@
         <v>2010</v>
       </c>
       <c r="D287" t="n">
-        <v>   301498</v>
+        <v>  1689901</v>
       </c>
     </row>
     <row r="288">
@@ -5774,7 +5774,7 @@
         <v>2011</v>
       </c>
       <c r="D288" t="n">
-        <v>   306983</v>
+        <v>  1734587</v>
       </c>
     </row>
     <row r="289">
@@ -5788,7 +5788,7 @@
         <v>2012</v>
       </c>
       <c r="D289" t="n">
-        <v>   313075</v>
+        <v>  1780769</v>
       </c>
     </row>
     <row r="290">
@@ -5802,7 +5802,7 @@
         <v>2005</v>
       </c>
       <c r="D290" t="n">
-        <v>  1507795</v>
+        <v>    48623</v>
       </c>
     </row>
     <row r="291">
@@ -5816,7 +5816,7 @@
         <v>2006</v>
       </c>
       <c r="D291" t="n">
-        <v>  1541206</v>
+        <v>    50026</v>
       </c>
     </row>
     <row r="292">
@@ -5830,7 +5830,7 @@
         <v>2007</v>
       </c>
       <c r="D292" t="n">
-        <v>  1576219</v>
+        <v>    51472</v>
       </c>
     </row>
     <row r="293">
@@ -5844,7 +5844,7 @@
         <v>2008</v>
       </c>
       <c r="D293" t="n">
-        <v>  1612781</v>
+        <v>    52912</v>
       </c>
     </row>
     <row r="294">
@@ -5858,7 +5858,7 @@
         <v>2009</v>
       </c>
       <c r="D294" t="n">
-        <v>  1650722</v>
+        <v>    54275</v>
       </c>
     </row>
     <row r="295">
@@ -5872,7 +5872,7 @@
         <v>2010</v>
       </c>
       <c r="D295" t="n">
-        <v>  1689901</v>
+        <v>    55509</v>
       </c>
     </row>
     <row r="296">
@@ -5886,7 +5886,7 @@
         <v>2011</v>
       </c>
       <c r="D296" t="n">
-        <v>  1734587</v>
+        <v>    56601</v>
       </c>
     </row>
     <row r="297">
@@ -5900,7 +5900,7 @@
         <v>2012</v>
       </c>
       <c r="D297" t="n">
-        <v>  1780769</v>
+        <v>    57570</v>
       </c>
     </row>
     <row r="298">
@@ -5914,7 +5914,7 @@
         <v>2005</v>
       </c>
       <c r="D298" t="n">
-        <v>    48623</v>
+        <v>  2165817</v>
       </c>
     </row>
     <row r="299">
@@ -5928,7 +5928,7 @@
         <v>2006</v>
       </c>
       <c r="D299" t="n">
-        <v>    50026</v>
+        <v>  2242190</v>
       </c>
     </row>
     <row r="300">
@@ -5942,7 +5942,7 @@
         <v>2007</v>
       </c>
       <c r="D300" t="n">
-        <v>    51472</v>
+        <v>  2317662</v>
       </c>
     </row>
     <row r="301">
@@ -5956,7 +5956,7 @@
         <v>2008</v>
       </c>
       <c r="D301" t="n">
-        <v>    52912</v>
+        <v>  2393006</v>
       </c>
     </row>
     <row r="302">
@@ -5970,7 +5970,7 @@
         <v>2009</v>
       </c>
       <c r="D302" t="n">
-        <v>    54275</v>
+        <v>  2469465</v>
       </c>
     </row>
     <row r="303">
@@ -5984,7 +5984,7 @@
         <v>2010</v>
       </c>
       <c r="D303" t="n">
-        <v>    55509</v>
+        <v>  2547981</v>
       </c>
     </row>
     <row r="304">
@@ -5998,7 +5998,7 @@
         <v>2011</v>
       </c>
       <c r="D304" t="n">
-        <v>    56601</v>
+        <v>  2637000</v>
       </c>
     </row>
     <row r="305">
@@ -6012,7 +6012,7 @@
         <v>2012</v>
       </c>
       <c r="D305" t="n">
-        <v>    57570</v>
+        <v>  2728615</v>
       </c>
     </row>
     <row r="306">
@@ -6026,7 +6026,7 @@
         <v>2005</v>
       </c>
       <c r="D306" t="n">
-        <v>  2165817</v>
+        <v> 14315626</v>
       </c>
     </row>
     <row r="307">
@@ -6040,7 +6040,7 @@
         <v>2006</v>
       </c>
       <c r="D307" t="n">
-        <v>  2242190</v>
+        <v> 14505303</v>
       </c>
     </row>
     <row r="308">
@@ -6054,7 +6054,7 @@
         <v>2007</v>
       </c>
       <c r="D308" t="n">
-        <v>  2317662</v>
+        <v> 14693728</v>
       </c>
     </row>
     <row r="309">
@@ -6068,7 +6068,7 @@
         <v>2008</v>
       </c>
       <c r="D309" t="n">
-        <v>  2393006</v>
+        <v> 14881190</v>
       </c>
     </row>
     <row r="310">
@@ -6082,7 +6082,7 @@
         <v>2009</v>
       </c>
       <c r="D310" t="n">
-        <v>  2469465</v>
+        <v> 15067959</v>
       </c>
     </row>
     <row r="311">
@@ -6096,7 +6096,7 @@
         <v>2010</v>
       </c>
       <c r="D311" t="n">
-        <v>  2547981</v>
+        <v> 15254229</v>
       </c>
     </row>
     <row r="312">
@@ -6110,7 +6110,7 @@
         <v>2011</v>
       </c>
       <c r="D312" t="n">
-        <v>  2637000</v>
+        <v> 15429721</v>
       </c>
     </row>
     <row r="313">
@@ -6124,7 +6124,7 @@
         <v>2012</v>
       </c>
       <c r="D313" t="n">
-        <v>  2728615</v>
+        <v> 15604672</v>
       </c>
     </row>
     <row r="314">
@@ -6138,7 +6138,7 @@
         <v>2005</v>
       </c>
       <c r="D314" t="n">
-        <v> 14315626</v>
+        <v>554367818</v>
       </c>
     </row>
     <row r="315">
@@ -6152,7 +6152,7 @@
         <v>2006</v>
       </c>
       <c r="D315" t="n">
-        <v> 14505303</v>
+        <v>575050081</v>
       </c>
     </row>
     <row r="316">
@@ -6166,7 +6166,7 @@
         <v>2007</v>
       </c>
       <c r="D316" t="n">
-        <v> 14693728</v>
+        <v>595731464</v>
       </c>
     </row>
     <row r="317">
@@ -6180,7 +6180,7 @@
         <v>2008</v>
       </c>
       <c r="D317" t="n">
-        <v> 14881190</v>
+        <v>616552722</v>
       </c>
     </row>
     <row r="318">
@@ -6194,7 +6194,7 @@
         <v>2009</v>
       </c>
       <c r="D318" t="n">
-        <v> 15067959</v>
+        <v>637476514</v>
       </c>
     </row>
     <row r="319">
@@ -6208,7 +6208,7 @@
         <v>2010</v>
       </c>
       <c r="D319" t="n">
-        <v> 15254229</v>
+        <v>658498663</v>
       </c>
     </row>
     <row r="320">
@@ -6222,7 +6222,7 @@
         <v>2011</v>
       </c>
       <c r="D320" t="n">
-        <v> 15429721</v>
+        <v>678796403</v>
       </c>
     </row>
     <row r="321">
@@ -6236,7 +6236,7 @@
         <v>2012</v>
       </c>
       <c r="D321" t="n">
-        <v> 15604672</v>
+        <v>699330440</v>
       </c>
     </row>
     <row r="322">
@@ -6250,7 +6250,7 @@
         <v>2005</v>
       </c>
       <c r="D322" t="n">
-        <v>554367818</v>
+        <v> 31775238</v>
       </c>
     </row>
     <row r="323">
@@ -6264,7 +6264,7 @@
         <v>2006</v>
       </c>
       <c r="D323" t="n">
-        <v>575050081</v>
+        <v> 32385094</v>
       </c>
     </row>
     <row r="324">
@@ -6278,7 +6278,7 @@
         <v>2007</v>
       </c>
       <c r="D324" t="n">
-        <v>595731464</v>
+        <v> 32998493</v>
       </c>
     </row>
     <row r="325">
@@ -6292,7 +6292,7 @@
         <v>2008</v>
       </c>
       <c r="D325" t="n">
-        <v>616552722</v>
+        <v> 33613907</v>
       </c>
     </row>
     <row r="326">
@@ -6306,7 +6306,7 @@
         <v>2009</v>
       </c>
       <c r="D326" t="n">
-        <v>637476514</v>
+        <v> 34229261</v>
       </c>
     </row>
     <row r="327">
@@ -6320,7 +6320,7 @@
         <v>2010</v>
       </c>
       <c r="D327" t="n">
-        <v>658498663</v>
+        <v> 34842887</v>
       </c>
     </row>
     <row r="328">
@@ -6334,7 +6334,7 @@
         <v>2011</v>
       </c>
       <c r="D328" t="n">
-        <v>678796403</v>
+        <v> 35446941</v>
       </c>
     </row>
     <row r="329">
@@ -6348,7 +6348,7 @@
         <v>2012</v>
       </c>
       <c r="D329" t="n">
-        <v>699330440</v>
+        <v> 36048136</v>
       </c>
     </row>
     <row r="330">
@@ -6362,7 +6362,7 @@
         <v>2005</v>
       </c>
       <c r="D330" t="n">
-        <v> 31775238</v>
+        <v>   167454</v>
       </c>
     </row>
     <row r="331">
@@ -6376,7 +6376,7 @@
         <v>2006</v>
       </c>
       <c r="D331" t="n">
-        <v> 32385094</v>
+        <v>   171974</v>
       </c>
     </row>
     <row r="332">
@@ -6390,7 +6390,7 @@
         <v>2007</v>
       </c>
       <c r="D332" t="n">
-        <v> 32998493</v>
+        <v>   176616</v>
       </c>
     </row>
     <row r="333">
@@ -6404,7 +6404,7 @@
         <v>2008</v>
       </c>
       <c r="D333" t="n">
-        <v> 33613907</v>
+        <v>   181360</v>
       </c>
     </row>
     <row r="334">
@@ -6418,7 +6418,7 @@
         <v>2009</v>
       </c>
       <c r="D334" t="n">
-        <v> 34229261</v>
+        <v>   186181</v>
       </c>
     </row>
     <row r="335">
@@ -6432,7 +6432,7 @@
         <v>2010</v>
       </c>
       <c r="D335" t="n">
-        <v> 34842887</v>
+        <v>   191058</v>
       </c>
     </row>
     <row r="336">
@@ -6446,7 +6446,7 @@
         <v>2011</v>
       </c>
       <c r="D336" t="n">
-        <v> 35446941</v>
+        <v>   196541</v>
       </c>
     </row>
     <row r="337">
@@ -6460,7 +6460,7 @@
         <v>2012</v>
       </c>
       <c r="D337" t="n">
-        <v> 36048136</v>
+        <v>   202101</v>
       </c>
     </row>
     <row r="338">
@@ -6474,7 +6474,7 @@
         <v>2005</v>
       </c>
       <c r="D338" t="n">
-        <v>   167454</v>
+        <v>  2160724</v>
       </c>
     </row>
     <row r="339">
@@ -6488,7 +6488,7 @@
         <v>2006</v>
       </c>
       <c r="D339" t="n">
-        <v>   171974</v>
+        <v>  2240321</v>
       </c>
     </row>
     <row r="340">
@@ -6502,7 +6502,7 @@
         <v>2007</v>
       </c>
       <c r="D340" t="n">
-        <v>   176616</v>
+        <v>  2326057</v>
       </c>
     </row>
     <row r="341">
@@ -6516,7 +6516,7 @@
         <v>2008</v>
       </c>
       <c r="D341" t="n">
-        <v>   181360</v>
+        <v>  2416168</v>
       </c>
     </row>
     <row r="342">
@@ -6530,7 +6530,7 @@
         <v>2009</v>
       </c>
       <c r="D342" t="n">
-        <v>   186181</v>
+        <v>  2507993</v>
       </c>
     </row>
     <row r="343">
@@ -6544,7 +6544,7 @@
         <v>2010</v>
       </c>
       <c r="D343" t="n">
-        <v>   191058</v>
+        <v>  2599550</v>
       </c>
     </row>
     <row r="344">
@@ -6558,7 +6558,7 @@
         <v>2011</v>
       </c>
       <c r="D344" t="n">
-        <v>   196541</v>
+        <v>  2689416</v>
       </c>
     </row>
     <row r="345">
@@ -6572,7 +6572,7 @@
         <v>2012</v>
       </c>
       <c r="D345" t="n">
-        <v>   202101</v>
+        <v>  2779000</v>
       </c>
     </row>
     <row r="346">
@@ -6586,7 +6586,7 @@
         <v>2005</v>
       </c>
       <c r="D346" t="n">
-        <v>  2160724</v>
+        <v>  2665779</v>
       </c>
     </row>
     <row r="347">
@@ -6600,7 +6600,7 @@
         <v>2006</v>
       </c>
       <c r="D347" t="n">
-        <v>  2240321</v>
+        <v>  2732218</v>
       </c>
     </row>
     <row r="348">
@@ -6614,7 +6614,7 @@
         <v>2007</v>
       </c>
       <c r="D348" t="n">
-        <v>  2326057</v>
+        <v>  2798353</v>
       </c>
     </row>
     <row r="349">
@@ -6628,7 +6628,7 @@
         <v>2008</v>
       </c>
       <c r="D349" t="n">
-        <v>  2416168</v>
+        <v>  2864401</v>
       </c>
     </row>
     <row r="350">
@@ -6642,7 +6642,7 @@
         <v>2009</v>
       </c>
       <c r="D350" t="n">
-        <v>  2507993</v>
+        <v>  2930647</v>
       </c>
     </row>
     <row r="351">
@@ -6656,7 +6656,7 @@
         <v>2010</v>
       </c>
       <c r="D351" t="n">
-        <v>  2599550</v>
+        <v>  2997284</v>
       </c>
     </row>
     <row r="352">
@@ -6670,7 +6670,7 @@
         <v>2011</v>
       </c>
       <c r="D352" t="n">
-        <v>  2689416</v>
+        <v>  3062616</v>
       </c>
     </row>
     <row r="353">
@@ -6684,7 +6684,7 @@
         <v>2012</v>
       </c>
       <c r="D353" t="n">
-        <v>  2779000</v>
+        <v>  3128324</v>
       </c>
     </row>
     <row r="354">
@@ -6698,7 +6698,7 @@
         <v>2005</v>
       </c>
       <c r="D354" t="n">
-        <v>  2665779</v>
+        <v>  8146651</v>
       </c>
     </row>
     <row r="355">
@@ -6712,7 +6712,7 @@
         <v>2006</v>
       </c>
       <c r="D355" t="n">
-        <v>  2732218</v>
+        <v>  8403813</v>
       </c>
     </row>
     <row r="356">
@@ -6726,7 +6726,7 @@
         <v>2007</v>
       </c>
       <c r="D356" t="n">
-        <v>  2798353</v>
+        <v>  8673776</v>
       </c>
     </row>
     <row r="357">
@@ -6740,7 +6740,7 @@
         <v>2008</v>
       </c>
       <c r="D357" t="n">
-        <v>  2864401</v>
+        <v>  8959948</v>
       </c>
     </row>
     <row r="358">
@@ -6754,7 +6754,7 @@
         <v>2009</v>
       </c>
       <c r="D358" t="n">
-        <v>  2930647</v>
+        <v>  9265849</v>
       </c>
     </row>
     <row r="359">
@@ -6768,7 +6768,7 @@
         <v>2010</v>
       </c>
       <c r="D359" t="n">
-        <v>  2997284</v>
+        <v>  9593994</v>
       </c>
     </row>
     <row r="360">
@@ -6782,7 +6782,7 @@
         <v>2011</v>
       </c>
       <c r="D360" t="n">
-        <v>  3062616</v>
+        <v>  9943130</v>
       </c>
     </row>
     <row r="361">
@@ -6796,7 +6796,7 @@
         <v>2012</v>
       </c>
       <c r="D361" t="n">
-        <v>  3128324</v>
+        <v> 10317186</v>
       </c>
     </row>
     <row r="362">
@@ -24106,7 +24106,7 @@
         <v>2005</v>
       </c>
       <c r="D1602" t="n">
-        <v> 31932581</v>
+        <v> 47710745</v>
       </c>
     </row>
     <row r="1603">
@@ -24120,7 +24120,7 @@
         <v>2006</v>
       </c>
       <c r="D1603" t="n">
-        <v> 31801166</v>
+        <v> 48119641</v>
       </c>
     </row>
     <row r="1604">
@@ -24134,7 +24134,7 @@
         <v>2007</v>
       </c>
       <c r="D1604" t="n">
-        <v> 31695192</v>
+        <v> 48551677</v>
       </c>
     </row>
     <row r="1605">
@@ -24148,7 +24148,7 @@
         <v>2008</v>
       </c>
       <c r="D1605" t="n">
-        <v> 31606840</v>
+        <v> 48991362</v>
       </c>
     </row>
     <row r="1606">
@@ -24162,7 +24162,7 @@
         <v>2009</v>
       </c>
       <c r="D1606" t="n">
-        <v> 31549274</v>
+        <v> 49422401</v>
       </c>
     </row>
     <row r="1607">
@@ -24176,7 +24176,7 @@
         <v>2010</v>
       </c>
       <c r="D1607" t="n">
-        <v> 31506290</v>
+        <v> 49889575</v>
       </c>
     </row>
     <row r="1608">
@@ -24190,7 +24190,7 @@
         <v>2011</v>
       </c>
       <c r="D1608" t="n">
-        <v> 31484190</v>
+        <v> 50377410</v>
       </c>
     </row>
     <row r="1609">
@@ -24204,7 +24204,7 @@
         <v>2012</v>
       </c>
       <c r="D1609" t="n">
-        <v> 31497219</v>
+        <v> 50739548</v>
       </c>
     </row>
     <row r="1610">
@@ -24218,7 +24218,7 @@
         <v>2005</v>
       </c>
       <c r="D1610" t="n">
-        <v> 47710745</v>
+        <v> 31932581</v>
       </c>
     </row>
     <row r="1611">
@@ -24232,7 +24232,7 @@
         <v>2006</v>
       </c>
       <c r="D1611" t="n">
-        <v> 48119641</v>
+        <v> 31801166</v>
       </c>
     </row>
     <row r="1612">
@@ -24246,7 +24246,7 @@
         <v>2007</v>
       </c>
       <c r="D1612" t="n">
-        <v> 48551677</v>
+        <v> 31695192</v>
       </c>
     </row>
     <row r="1613">
@@ -24260,7 +24260,7 @@
         <v>2008</v>
       </c>
       <c r="D1613" t="n">
-        <v> 48991362</v>
+        <v> 31606840</v>
       </c>
     </row>
     <row r="1614">
@@ -24274,7 +24274,7 @@
         <v>2009</v>
       </c>
       <c r="D1614" t="n">
-        <v> 49422401</v>
+        <v> 31549274</v>
       </c>
     </row>
     <row r="1615">
@@ -24288,7 +24288,7 @@
         <v>2010</v>
       </c>
       <c r="D1615" t="n">
-        <v> 49889575</v>
+        <v> 31506290</v>
       </c>
     </row>
     <row r="1616">
@@ -24302,7 +24302,7 @@
         <v>2011</v>
       </c>
       <c r="D1616" t="n">
-        <v> 50377410</v>
+        <v> 31484190</v>
       </c>
     </row>
     <row r="1617">
@@ -24316,7 +24316,7 @@
         <v>2012</v>
       </c>
       <c r="D1617" t="n">
-        <v> 50739548</v>
+        <v> 31497219</v>
       </c>
     </row>
     <row r="1618">
